--- a/PREGAME/1. ELICITACION/1.6 Backlog/G5_Backlog_V.1.0.xlsx
+++ b/PREGAME/1. ELICITACION/1.6 Backlog/G5_Backlog_V.1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
     <t>David Sangoquiza-Tamayo Alison</t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar las respectivas conecciones en el codigo </t>
+    <t xml:space="preserve">Realizar las respectivas conexiones en el codigo </t>
   </si>
 </sst>
 </file>
@@ -508,9 +508,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -549,6 +546,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -557,8 +559,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,7 +1244,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="27"/>
@@ -1256,7 +1256,7 @@
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="30"/>
@@ -1268,7 +1268,7 @@
       <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="60" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="27"/>
@@ -1280,7 +1280,7 @@
       <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="60" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="32"/>
@@ -1292,7 +1292,7 @@
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="60" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="27"/>
@@ -1304,7 +1304,7 @@
       <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="60" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="27"/>
@@ -2320,8 +2320,8 @@
   </sheetPr>
   <dimension ref="B1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2408,12 +2408,12 @@
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="38" t="s">
         <v>45</v>
       </c>
@@ -2426,12 +2426,12 @@
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="38" t="s">
         <v>51</v>
       </c>
@@ -2444,12 +2444,12 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="38" t="s">
         <v>45</v>
       </c>
@@ -2459,16 +2459,16 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="41" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="1"/>
@@ -2477,14 +2477,14 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1">
       <c r="B11" s="3"/>
@@ -3576,7 +3576,7 @@
   </sheetPr>
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:D25"/>
     </sheetView>
   </sheetViews>
@@ -3625,7 +3625,7 @@
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="50">
         <v>4</v>
       </c>
       <c r="D4" s="14">
@@ -3658,10 +3658,10 @@
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="50">
         <v>1</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="54">
         <v>0</v>
       </c>
       <c r="E5" s="14">
@@ -3692,7 +3692,7 @@
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="50">
         <v>2</v>
       </c>
       <c r="D6" s="14">
@@ -3726,7 +3726,7 @@
       <c r="B7" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="51">
         <v>4</v>
       </c>
       <c r="D7" s="14">
@@ -3741,7 +3741,7 @@
       <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="52">
         <v>0</v>
       </c>
       <c r="I7" s="14">
@@ -3750,14 +3750,14 @@
       <c r="J7" s="14">
         <v>0</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="53">
         <f>SUM(D7:J7)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B8" s="45"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -3765,37 +3765,37 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="42"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B9" s="46"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="49"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B10" s="47"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="49"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="B11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
@@ -3873,61 +3873,61 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="45"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="56"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="20" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="27" spans="2:5" ht="15.75" customHeight="1"/>
